--- a/R/analysis/data/Pt_15_Control.xlsx
+++ b/R/analysis/data/Pt_15_Control.xlsx
@@ -524,7 +524,7 @@
         <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>1.25</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.71</v>
+        <v>3.71</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>1.92</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>0.64</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.46</v>
+        <v>3.26</v>
       </c>
       <c r="M4" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0.84</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.9</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.86</v>
+        <v>3.86</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>2.16</v>
       </c>
       <c r="K7" t="n">
-        <v>4.62</v>
+        <v>0.84</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="n">
-        <v>3.39</v>
+        <v>0.57</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0.82</v>
       </c>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>1.07</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -977,14 +977,14 @@
         <v>1.21</v>
       </c>
       <c r="K10" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="L10" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1092,7 +1092,7 @@
         <v>1.27</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1145,10 +1145,10 @@
         <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>0.05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>3.46</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1212,7 +1212,7 @@
         <v>0.58</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
@@ -1319,16 +1319,16 @@
         <v>4.26</v>
       </c>
       <c r="K16" t="n">
-        <v>4.12</v>
+        <v>0.73</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.52</v>
+        <v>2.92</v>
       </c>
       <c r="M16" t="n">
-        <v>3.3</v>
+        <v>0.47</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.33</v>
+        <v>2.34</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1388,7 +1388,7 @@
         <v>0.58</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>1.39</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1493,14 +1493,14 @@
         <v>2.67</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0.75</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.83</v>
+        <v>2.83</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1671,16 +1671,16 @@
         <v>1.48</v>
       </c>
       <c r="K22" t="n">
-        <v>4.26</v>
+        <v>0.26</v>
       </c>
       <c r="L22" t="n">
-        <v>0.19</v>
+        <v>3.02</v>
       </c>
       <c r="M22" t="n">
-        <v>5.66</v>
+        <v>1.41</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0.45</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0.49</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.71</v>
+        <v>2.71</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
@@ -1847,16 +1847,16 @@
         <v>1.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.33</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.36</v>
+        <v>2.36</v>
       </c>
       <c r="M25" t="n">
-        <v>3.68</v>
+        <v>0.57</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0.45</v>
       </c>
       <c r="N26" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0.71</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2021,14 +2021,14 @@
         <v>1.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.83</v>
+        <v>0.06</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.04</v>
+        <v>2.71</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-2.8</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
